--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_035.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_035.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="146">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -44,12 +47,21 @@
     <t/>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+  </si>
+  <si>
     <t>Constatazione di avvenuto parto</t>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+  </si>
+  <si>
     <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
   </si>
   <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+  </si>
+  <si>
     <t>Certificato medico attestante che il bambino è nato vivo e poi deceduto</t>
   </si>
   <si>
@@ -59,6 +71,9 @@
     <t>Procura</t>
   </si>
   <si>
+    <t>Atto notarile consenso</t>
+  </si>
+  <si>
     <t>Formula</t>
   </si>
   <si>
@@ -101,6 +116,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -402,6 +420,9 @@
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>{evento.ausilioInterprete,=,false}</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -487,7 +508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G139"/>
+  <dimension ref="A1:H140"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -499,6 +520,7 @@
     <col min="4" max="4" width="33.328125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="41.19140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -520,2765 +542,3205 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>9</v>
+      <c r="G17" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="E25" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>89</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>95</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>89</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>95</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E96" s="2" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B97" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="E97" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="E110" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>9</v>
+        <v>135</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>9</v>
+        <v>135</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>9</v>
+        <v>135</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>129</v>
+        <v>135</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>83</v>
+        <v>134</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E139" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F139" s="2" t="s">
-        <v>9</v>
+      <c r="B140" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_035.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_035.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_035.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_035.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="147">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,76 +32,79 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Attestazione di nascita</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+  </si>
+  <si>
+    <t>Constatazione di avvenuto parto</t>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+  </si>
+  <si>
+    <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
+  </si>
+  <si>
+    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+  </si>
+  <si>
+    <t>Certificato medico attestante che il bambino è nato vivo e poi deceduto</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Procura</t>
+  </si>
+  <si>
+    <t>Atto notarile consenso</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Attestazione di nascita</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
-  </si>
-  <si>
-    <t>Constatazione di avvenuto parto</t>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
-  </si>
-  <si>
-    <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
-  </si>
-  <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
-  </si>
-  <si>
-    <t>Certificato medico attestante che il bambino è nato vivo e poi deceduto</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>Procura</t>
-  </si>
-  <si>
-    <t>Atto notarile consenso</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -911,2836 +914,2836 @@
         <v>5</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="G69" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_035.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_035.xlsx
@@ -47,19 +47,19 @@
     <t/>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,1}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,1</t>
   </si>
   <si>
     <t>Constatazione di avvenuto parto</t>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,2}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,2</t>
   </si>
   <si>
     <t>Dichiarazione di nascita sostitutiva resa da dichiarante</t>
   </si>
   <si>
-    <t>{evento.datiDiNascita.tipoAccertamento,=,3}</t>
+    <t>evento.datiDiNascita.tipoAccertamento,=,3</t>
   </si>
   <si>
     <t>Certificato medico attestante che il bambino è nato vivo e poi deceduto</t>
@@ -425,7 +425,7 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -523,7 +523,7 @@
     <col min="4" max="4" width="33.328125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="41.19140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="39.80859375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_035.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_035.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="149">
   <si>
     <t>Sezione</t>
   </si>
@@ -207,6 +207,12 @@
   </si>
   <si>
     <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
   </si>
   <si>
     <t>Nazionalita</t>
@@ -511,7 +517,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H140"/>
+  <dimension ref="A1:H144"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1270,7 +1276,7 @@
         <v>65</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>45</v>
@@ -1362,7 +1368,7 @@
         <v>73</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>45</v>
@@ -1477,7 +1483,7 @@
         <v>83</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>45</v>
@@ -1549,10 +1555,10 @@
         <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1566,13 +1572,13 @@
         <v>42</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>93</v>
@@ -1586,22 +1592,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F47" s="2" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>35</v>
@@ -1609,22 +1615,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>35</v>
@@ -1632,19 +1638,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1655,19 +1661,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1678,19 +1684,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1701,19 +1707,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1724,19 +1730,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1747,22 +1753,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>35</v>
@@ -1770,22 +1776,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>35</v>
@@ -1793,22 +1799,22 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>35</v>
@@ -1816,22 +1822,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>35</v>
@@ -1839,22 +1845,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>35</v>
@@ -1862,19 +1868,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1885,19 +1891,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1908,19 +1914,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1931,22 +1937,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>35</v>
@@ -1954,19 +1960,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1977,19 +1983,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>22</v>
@@ -2000,22 +2006,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>35</v>
@@ -2023,22 +2029,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>35</v>
@@ -2046,22 +2052,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>35</v>
@@ -2069,19 +2075,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2092,22 +2098,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="E69" s="2" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>35</v>
@@ -2115,19 +2121,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="E70" s="2" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2138,22 +2144,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F71" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>35</v>
@@ -2161,19 +2167,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2184,19 +2190,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2207,19 +2213,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2230,19 +2236,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2253,22 +2259,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>35</v>
@@ -2276,19 +2282,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2299,19 +2305,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>22</v>
@@ -2322,19 +2328,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2345,22 +2351,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>35</v>
@@ -2368,22 +2374,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>35</v>
@@ -2391,19 +2397,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2414,19 +2420,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2437,22 +2443,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>35</v>
@@ -2460,19 +2466,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2483,22 +2489,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>35</v>
@@ -2506,19 +2512,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>22</v>
@@ -2529,19 +2535,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2552,22 +2558,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>35</v>
@@ -2575,22 +2581,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>35</v>
@@ -2601,16 +2607,16 @@
         <v>99</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>100</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2624,7 +2630,7 @@
         <v>99</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
@@ -2633,7 +2639,7 @@
         <v>100</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2647,16 +2653,16 @@
         <v>99</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2667,10 +2673,10 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
@@ -2679,7 +2685,7 @@
         <v>102</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2690,19 +2696,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2713,19 +2719,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2736,16 +2742,16 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>107</v>
@@ -2759,10 +2765,10 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>17</v>
@@ -2771,7 +2777,7 @@
         <v>102</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>109</v>
+        <v>50</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2782,19 +2788,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2805,19 +2811,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2828,19 +2834,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2851,19 +2857,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2874,19 +2880,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2897,19 +2903,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2920,10 +2926,10 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
@@ -2932,7 +2938,7 @@
         <v>102</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>113</v>
+        <v>60</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2943,10 +2949,10 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>114</v>
+        <v>61</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -2955,7 +2961,7 @@
         <v>102</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2966,10 +2972,10 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>116</v>
+        <v>63</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
@@ -2978,7 +2984,7 @@
         <v>102</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>117</v>
+        <v>64</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2989,19 +2995,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3012,19 +3018,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3035,19 +3041,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="C110" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3058,19 +3064,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3081,19 +3087,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3104,19 +3110,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3127,19 +3133,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3150,599 +3156,691 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>46</v>
+        <v>131</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>137</v>
+        <v>35</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>47</v>
+        <v>132</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>137</v>
+        <v>35</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C117" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E117" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>137</v>
+        <v>35</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>138</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F137" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="G137" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F137" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G137" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>141</v>
+        <v>85</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>90</v>
+        <v>137</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>142</v>
+        <v>86</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>35</v>
+        <v>139</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>143</v>
+        <v>87</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>33</v>
+        <v>137</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>144</v>
+        <v>88</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>35</v>
+        <v>139</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E140" s="2" t="s">
+      <c r="C143" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F140" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G140" s="2" t="s">
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
         <v>35</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_035.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_035.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="150">
   <si>
     <t>Sezione</t>
   </si>
@@ -431,7 +431,10 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -529,7 +532,7 @@
     <col min="4" max="4" width="33.328125" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="39.80859375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3734,7 +3737,7 @@
         <v>136</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>17</v>
@@ -3754,10 +3757,10 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>17</v>
@@ -3766,7 +3769,7 @@
         <v>92</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3777,10 +3780,10 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
@@ -3789,7 +3792,7 @@
         <v>92</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>25</v>
@@ -3800,10 +3803,10 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>17</v>
@@ -3812,7 +3815,7 @@
         <v>33</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3823,10 +3826,10 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>17</v>
@@ -3835,7 +3838,7 @@
         <v>104</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_035.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_035.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="149">
   <si>
     <t>Sezione</t>
   </si>
@@ -432,9 +432,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -3737,7 +3734,7 @@
         <v>136</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>140</v>
+        <v>89</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>17</v>
@@ -3757,10 +3754,10 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>17</v>
@@ -3769,7 +3766,7 @@
         <v>92</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3780,10 +3777,10 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
@@ -3792,7 +3789,7 @@
         <v>92</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>25</v>
@@ -3803,10 +3800,10 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>17</v>
@@ -3815,7 +3812,7 @@
         <v>33</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3826,10 +3823,10 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>17</v>
@@ -3838,7 +3835,7 @@
         <v>104</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_035.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_035.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="150">
   <si>
     <t>Sezione</t>
   </si>
@@ -432,6 +432,9 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -3734,7 +3737,7 @@
         <v>136</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>89</v>
+        <v>140</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>17</v>
@@ -3754,10 +3757,10 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>17</v>
@@ -3766,7 +3769,7 @@
         <v>92</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3777,10 +3780,10 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
@@ -3789,7 +3792,7 @@
         <v>92</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>25</v>
@@ -3800,10 +3803,10 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>17</v>
@@ -3812,7 +3815,7 @@
         <v>33</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -3823,10 +3826,10 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>17</v>
@@ -3835,7 +3838,7 @@
         <v>104</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_035.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_035.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="160">
   <si>
     <t>Sezione</t>
   </si>
@@ -309,6 +309,36 @@
   </si>
   <si>
     <t>7,21</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Trasmissione residenza estera</t>
+  </si>
+  <si>
+    <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
     <t>Padre</t>
@@ -520,7 +550,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H144"/>
+  <dimension ref="A1:H158"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -530,7 +560,7 @@
     <col min="2" max="2" width="65.09375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="33.328125" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -2147,22 +2177,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F71" s="2" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>35</v>
@@ -2170,22 +2200,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>35</v>
@@ -2193,19 +2223,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2216,22 +2246,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>35</v>
@@ -2239,22 +2269,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>35</v>
@@ -2262,22 +2292,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>35</v>
@@ -2285,19 +2315,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2308,22 +2338,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>35</v>
@@ -2331,19 +2361,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2354,22 +2384,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>35</v>
@@ -2377,22 +2407,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>35</v>
@@ -2400,19 +2430,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2423,22 +2453,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>35</v>
@@ -2446,19 +2476,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2469,22 +2499,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>35</v>
@@ -2492,22 +2522,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>35</v>
@@ -2515,22 +2545,22 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
         <v>35</v>
@@ -2538,19 +2568,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2561,22 +2591,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>35</v>
@@ -2584,22 +2614,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>35</v>
@@ -2607,19 +2637,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2630,22 +2660,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>35</v>
@@ -2653,19 +2683,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2676,22 +2706,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>35</v>
@@ -2699,22 +2729,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>35</v>
@@ -2722,19 +2752,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2745,19 +2775,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2768,19 +2798,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2791,19 +2821,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2814,22 +2844,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="C100" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>35</v>
@@ -2837,19 +2867,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B101" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D101" s="2" t="s">
+      <c r="E101" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2860,22 +2890,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>35</v>
@@ -2883,22 +2913,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>35</v>
@@ -2906,19 +2936,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2929,19 +2959,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>113</v>
+        <v>47</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2952,19 +2982,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>62</v>
+        <v>115</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -2975,19 +3005,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>64</v>
+        <v>117</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -2998,19 +3028,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>114</v>
+        <v>49</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3021,19 +3051,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>117</v>
+        <v>52</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3044,16 +3074,16 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>119</v>
@@ -3067,19 +3097,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="C111" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3090,19 +3120,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>125</v>
+        <v>54</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3113,19 +3143,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>127</v>
+        <v>56</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3136,19 +3166,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3159,19 +3189,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>131</v>
+        <v>60</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3182,19 +3212,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>132</v>
+        <v>61</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>133</v>
+        <v>62</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3205,19 +3235,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>134</v>
+        <v>63</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>135</v>
+        <v>64</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3228,622 +3258,944 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>139</v>
+        <v>35</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>139</v>
+        <v>35</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>139</v>
+        <v>35</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>139</v>
+        <v>35</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>139</v>
+        <v>35</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>55</v>
+        <v>126</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>56</v>
+        <v>127</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>139</v>
+        <v>35</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>57</v>
+        <v>128</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>58</v>
+        <v>129</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>139</v>
+        <v>35</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>59</v>
+        <v>131</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>139</v>
+        <v>35</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>61</v>
+        <v>134</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>139</v>
+        <v>35</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E127" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="F127" s="2" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>139</v>
+        <v>35</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>65</v>
+        <v>138</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>66</v>
+        <v>139</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>139</v>
+        <v>35</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>67</v>
+        <v>140</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>68</v>
+        <v>141</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>139</v>
+        <v>35</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>69</v>
+        <v>142</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>70</v>
+        <v>143</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>139</v>
+        <v>35</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>71</v>
+        <v>144</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>72</v>
+        <v>145</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>139</v>
+        <v>35</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>148</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>148</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>140</v>
+        <v>61</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>142</v>
+        <v>63</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>143</v>
+        <v>64</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>10</v>
+        <v>148</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>35</v>
+        <v>149</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>144</v>
+        <v>65</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>145</v>
+        <v>66</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>25</v>
+        <v>148</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>35</v>
+        <v>149</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>146</v>
+        <v>67</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>33</v>
+        <v>147</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>147</v>
+        <v>68</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>35</v>
+        <v>149</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F148" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C144" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E144" s="2" t="s">
+      <c r="G148" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="F144" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G144" s="2" t="s">
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
         <v>35</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_035.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_035.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="162">
   <si>
     <t>Sezione</t>
   </si>
@@ -161,6 +161,12 @@
     <t>nome</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -215,13 +221,13 @@
     <t>localitaEsteraNascita</t>
   </si>
   <si>
-    <t>Nazionalita</t>
+    <t>Nazionalità</t>
   </si>
   <si>
     <t>idNazionalita</t>
   </si>
   <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>nazionalita</t>
@@ -550,7 +556,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H158"/>
+  <dimension ref="A1:H163"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1125,7 +1131,7 @@
         <v>49</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>45</v>
@@ -1217,7 +1223,7 @@
         <v>57</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>45</v>
@@ -1332,7 +1338,7 @@
         <v>67</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>45</v>
@@ -1355,7 +1361,7 @@
         <v>69</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>45</v>
@@ -1424,7 +1430,7 @@
         <v>75</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>45</v>
@@ -1539,7 +1545,7 @@
         <v>85</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>45</v>
@@ -1611,10 +1617,10 @@
         <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1628,13 +1634,13 @@
         <v>42</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>95</v>
@@ -1648,22 +1654,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F48" s="2" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>35</v>
@@ -1671,22 +1677,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>35</v>
@@ -1694,19 +1700,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1717,19 +1723,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1740,19 +1746,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1763,19 +1769,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1786,19 +1792,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1809,22 +1815,22 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>35</v>
@@ -1832,19 +1838,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1855,19 +1861,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>22</v>
@@ -1878,22 +1884,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>35</v>
@@ -1901,22 +1907,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>35</v>
@@ -1924,22 +1930,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>35</v>
@@ -1947,19 +1953,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1970,19 +1976,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1993,19 +1999,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2016,22 +2022,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>35</v>
@@ -2039,19 +2045,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2062,19 +2068,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>22</v>
@@ -2085,22 +2091,22 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
         <v>35</v>
@@ -2108,22 +2114,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>35</v>
@@ -2131,22 +2137,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>35</v>
@@ -2154,19 +2160,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2177,19 +2183,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="E71" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2200,22 +2206,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>35</v>
@@ -2223,19 +2229,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2246,19 +2252,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>22</v>
@@ -2269,22 +2275,22 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>35</v>
@@ -2292,22 +2298,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>35</v>
@@ -2315,22 +2321,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C77" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>35</v>
@@ -2338,22 +2344,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>35</v>
@@ -2361,19 +2367,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2384,19 +2390,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2407,19 +2413,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2430,19 +2436,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2453,22 +2459,22 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>35</v>
@@ -2476,19 +2482,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2499,22 +2505,22 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
         <v>35</v>
@@ -2522,19 +2528,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>22</v>
@@ -2545,19 +2551,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2568,22 +2574,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>35</v>
@@ -2591,22 +2597,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>35</v>
@@ -2614,19 +2620,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2637,19 +2643,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2660,22 +2666,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>35</v>
@@ -2683,19 +2689,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2706,22 +2712,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>35</v>
@@ -2729,19 +2735,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>22</v>
@@ -2752,19 +2758,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2775,22 +2781,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>35</v>
@@ -2798,22 +2804,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>35</v>
@@ -2821,19 +2827,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2844,22 +2850,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>35</v>
@@ -2867,19 +2873,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2890,22 +2896,22 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>35</v>
@@ -2913,19 +2919,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>22</v>
@@ -2939,7 +2945,7 @@
         <v>111</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -2948,7 +2954,7 @@
         <v>112</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2962,19 +2968,19 @@
         <v>111</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>112</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>35</v>
@@ -2985,19 +2991,19 @@
         <v>111</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>35</v>
@@ -3005,10 +3011,10 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
@@ -3017,7 +3023,7 @@
         <v>114</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3028,19 +3034,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3051,19 +3057,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3074,16 +3080,16 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>119</v>
@@ -3097,19 +3103,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>114</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3120,19 +3126,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3143,19 +3149,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3166,19 +3172,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3189,19 +3195,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B115" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3212,19 +3218,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3235,19 +3241,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3258,10 +3264,10 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>124</v>
+        <v>59</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
@@ -3270,7 +3276,7 @@
         <v>114</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>125</v>
+        <v>60</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3281,19 +3287,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3304,19 +3310,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3327,19 +3333,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3350,19 +3356,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3373,10 +3379,10 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
@@ -3385,7 +3391,7 @@
         <v>114</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3396,10 +3402,10 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
@@ -3408,7 +3414,7 @@
         <v>114</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3419,19 +3425,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3442,19 +3448,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3465,19 +3471,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3488,19 +3494,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B128" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="C128" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3511,19 +3517,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3534,19 +3540,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3557,19 +3563,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3580,622 +3586,737 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>46</v>
+        <v>141</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>148</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>149</v>
+        <v>35</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>47</v>
+        <v>142</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>48</v>
+        <v>143</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>149</v>
+        <v>35</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>49</v>
+        <v>144</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>50</v>
+        <v>145</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>149</v>
+        <v>35</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B135" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="C135" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D135" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E135" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>149</v>
+        <v>35</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>148</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>148</v>
+        <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>148</v>
+        <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>148</v>
+        <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>148</v>
+        <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>148</v>
+        <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G155" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G155" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G156" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G157" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B158" s="2" t="s">
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B162" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C158" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E158" s="2" t="s">
+      <c r="C162" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E162" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F158" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G158" s="2" t="s">
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
         <v>35</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_035.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_035.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="164">
   <si>
     <t>Sezione</t>
   </si>
@@ -231,6 +231,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -556,7 +562,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H163"/>
+  <dimension ref="A1:H167"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1407,7 +1413,7 @@
         <v>73</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>45</v>
@@ -1430,7 +1436,7 @@
         <v>75</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>45</v>
@@ -1568,7 +1574,7 @@
         <v>87</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>45</v>
@@ -1640,10 +1646,10 @@
         <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1657,13 +1663,13 @@
         <v>42</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>97</v>
@@ -1677,22 +1683,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F49" s="2" t="s">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>35</v>
@@ -1700,22 +1706,22 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>35</v>
@@ -1723,19 +1729,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1746,19 +1752,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1769,19 +1775,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1792,19 +1798,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1815,19 +1821,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1838,19 +1844,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1861,22 +1867,22 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>35</v>
@@ -1884,22 +1890,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>35</v>
@@ -1907,22 +1913,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>35</v>
@@ -1930,19 +1936,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>22</v>
@@ -1953,22 +1959,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>35</v>
@@ -1976,19 +1982,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1999,19 +2005,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2022,22 +2028,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>35</v>
@@ -2045,19 +2051,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2068,19 +2074,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>22</v>
@@ -2091,19 +2097,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2114,19 +2120,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>22</v>
@@ -2137,22 +2143,22 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
         <v>35</v>
@@ -2160,22 +2166,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>35</v>
@@ -2183,22 +2189,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>35</v>
@@ -2206,19 +2212,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2229,19 +2235,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="E73" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2252,22 +2258,22 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>35</v>
@@ -2275,19 +2281,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2298,19 +2304,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>22</v>
@@ -2321,22 +2327,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>35</v>
@@ -2344,22 +2350,22 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>35</v>
@@ -2367,22 +2373,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C79" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>35</v>
@@ -2390,22 +2396,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>35</v>
@@ -2413,19 +2419,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2436,19 +2442,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2459,19 +2465,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2482,19 +2488,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2505,19 +2511,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2528,22 +2534,22 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
         <v>35</v>
@@ -2551,19 +2557,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2574,19 +2580,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>22</v>
@@ -2597,22 +2603,22 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
         <v>35</v>
@@ -2620,22 +2626,22 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>35</v>
@@ -2643,22 +2649,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>35</v>
@@ -2666,19 +2672,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2689,19 +2695,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2712,22 +2718,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>35</v>
@@ -2735,22 +2741,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>35</v>
@@ -2758,22 +2764,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>35</v>
@@ -2781,22 +2787,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>35</v>
@@ -2804,19 +2810,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>22</v>
@@ -2827,19 +2833,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2850,22 +2856,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>35</v>
@@ -2873,22 +2879,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>35</v>
@@ -2896,19 +2902,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2919,22 +2925,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>35</v>
@@ -2942,19 +2948,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2965,22 +2971,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>35</v>
@@ -2988,19 +2994,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>22</v>
@@ -3014,7 +3020,7 @@
         <v>113</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
@@ -3023,7 +3029,7 @@
         <v>114</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3037,19 +3043,19 @@
         <v>113</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>114</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>35</v>
@@ -3060,19 +3066,19 @@
         <v>113</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>35</v>
@@ -3080,10 +3086,10 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
@@ -3092,7 +3098,7 @@
         <v>116</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>119</v>
+        <v>46</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3103,19 +3109,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3126,19 +3132,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3149,19 +3155,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>54</v>
+        <v>121</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3172,19 +3178,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>116</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3195,10 +3201,10 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>122</v>
+        <v>51</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>17</v>
@@ -3207,7 +3213,7 @@
         <v>116</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3218,19 +3224,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3241,19 +3247,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3264,19 +3270,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3287,19 +3293,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3310,19 +3316,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3333,19 +3339,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3356,10 +3362,10 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
@@ -3368,7 +3374,7 @@
         <v>116</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3379,19 +3385,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3402,19 +3408,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3425,19 +3431,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3448,19 +3454,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3471,10 +3477,10 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
@@ -3483,7 +3489,7 @@
         <v>116</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3494,10 +3500,10 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
@@ -3506,7 +3512,7 @@
         <v>116</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3517,19 +3523,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3540,19 +3546,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3563,19 +3569,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B131" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="C131" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3586,19 +3592,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3609,19 +3615,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3632,19 +3638,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3655,19 +3661,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3678,645 +3684,737 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>44</v>
+        <v>144</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>46</v>
+        <v>145</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>151</v>
+        <v>35</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>47</v>
+        <v>146</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>48</v>
+        <v>147</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>151</v>
+        <v>35</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B138" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D138" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E138" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>151</v>
+        <v>35</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>10</v>
+        <v>152</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B159" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F159" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C159" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G159" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G160" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G160" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E161" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F161" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G161" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E162" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F162" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G162" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B163" s="2" t="s">
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B166" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C163" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E163" s="2" t="s">
+      <c r="C166" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E166" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F163" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G163" s="2" t="s">
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
         <v>35</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_035.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_035.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="166">
   <si>
     <t>Sezione</t>
   </si>
@@ -231,6 +231,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Residenza non nota</t>
@@ -562,7 +568,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H167"/>
+  <dimension ref="A1:H171"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1597,7 +1603,7 @@
         <v>89</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>45</v>
@@ -1669,10 +1675,10 @@
         <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1686,13 +1692,13 @@
         <v>42</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>99</v>
@@ -1706,22 +1712,22 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F50" s="2" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>35</v>
@@ -1729,22 +1735,22 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>35</v>
@@ -1752,19 +1758,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1775,19 +1781,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1798,19 +1804,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1821,19 +1827,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1844,19 +1850,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1867,19 +1873,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1890,22 +1896,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>35</v>
@@ -1913,22 +1919,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>35</v>
@@ -1936,22 +1942,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>35</v>
@@ -1959,19 +1965,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>22</v>
@@ -1982,22 +1988,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>35</v>
@@ -2005,19 +2011,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2028,22 +2034,22 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>35</v>
@@ -2051,22 +2057,22 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>35</v>
@@ -2074,19 +2080,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>22</v>
@@ -2097,19 +2103,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2120,19 +2126,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>22</v>
@@ -2143,19 +2149,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2166,19 +2172,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>22</v>
@@ -2189,22 +2195,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>35</v>
@@ -2212,22 +2218,22 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G72" s="2" t="s">
         <v>35</v>
@@ -2235,22 +2241,22 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>35</v>
@@ -2258,19 +2264,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2281,19 +2287,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="E75" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2304,22 +2310,22 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>35</v>
@@ -2327,19 +2333,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2350,19 +2356,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>22</v>
@@ -2373,22 +2379,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>35</v>
@@ -2396,22 +2402,22 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>35</v>
@@ -2419,22 +2425,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C81" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>35</v>
@@ -2442,22 +2448,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>35</v>
@@ -2465,19 +2471,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2488,19 +2494,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2511,19 +2517,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2534,19 +2540,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2557,19 +2563,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2580,22 +2586,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>35</v>
@@ -2603,19 +2609,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2626,19 +2632,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>22</v>
@@ -2649,22 +2655,22 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
         <v>35</v>
@@ -2672,22 +2678,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>35</v>
@@ -2695,22 +2701,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>35</v>
@@ -2718,22 +2724,22 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
         <v>35</v>
@@ -2741,19 +2747,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2764,19 +2770,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>22</v>
@@ -2787,22 +2793,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>35</v>
@@ -2810,22 +2816,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>35</v>
@@ -2833,22 +2839,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>35</v>
@@ -2856,22 +2862,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>35</v>
@@ -2879,19 +2885,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>22</v>
@@ -2902,19 +2908,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2925,22 +2931,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>35</v>
@@ -2948,22 +2954,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>35</v>
@@ -2971,19 +2977,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2994,22 +3000,22 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>35</v>
@@ -3017,19 +3023,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3040,22 +3046,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>35</v>
@@ -3063,19 +3069,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>22</v>
@@ -3089,7 +3095,7 @@
         <v>115</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
@@ -3098,7 +3104,7 @@
         <v>116</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>46</v>
+        <v>110</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3112,19 +3118,19 @@
         <v>115</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>47</v>
+        <v>111</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>116</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>48</v>
+        <v>112</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>35</v>
@@ -3135,19 +3141,19 @@
         <v>115</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>35</v>
@@ -3155,10 +3161,10 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
@@ -3167,7 +3173,7 @@
         <v>118</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>121</v>
+        <v>46</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3178,19 +3184,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3201,19 +3207,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3224,19 +3230,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>54</v>
+        <v>123</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3247,19 +3253,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>118</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3270,10 +3276,10 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>17</v>
@@ -3282,7 +3288,7 @@
         <v>118</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3293,19 +3299,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3316,19 +3322,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3339,19 +3345,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3362,19 +3368,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>127</v>
+        <v>55</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3385,19 +3391,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3408,19 +3414,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3431,10 +3437,10 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
@@ -3443,7 +3449,7 @@
         <v>118</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3454,19 +3460,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3477,19 +3483,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3500,19 +3506,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3523,19 +3529,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3546,10 +3552,10 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
@@ -3558,7 +3564,7 @@
         <v>118</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3569,10 +3575,10 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
@@ -3581,7 +3587,7 @@
         <v>118</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
@@ -3592,19 +3598,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3615,19 +3621,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3638,19 +3644,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="C134" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3661,19 +3667,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3684,19 +3690,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3707,19 +3713,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3730,19 +3736,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3753,668 +3759,760 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>153</v>
+        <v>35</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>47</v>
+        <v>148</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>48</v>
+        <v>149</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>153</v>
+        <v>35</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D141" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="E141" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>153</v>
+        <v>35</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>152</v>
+        <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B163" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F163" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C163" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F163" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G163" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G164" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F164" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G164" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G165" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F165" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G165" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E166" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F166" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G166" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B167" s="2" t="s">
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B170" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C167" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E167" s="2" t="s">
+      <c r="C170" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E170" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="F167" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G167" s="2" t="s">
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
         <v>35</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_035.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_035.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="198">
   <si>
     <t>Sezione</t>
   </si>
@@ -140,6 +140,96 @@
     <t>minuto</t>
   </si>
   <si>
+    <t>Luogo Redazione</t>
+  </si>
+  <si>
+    <t>Luogo</t>
+  </si>
+  <si>
+    <t>evento.luogoRedazione</t>
+  </si>
+  <si>
+    <t>luogo</t>
+  </si>
+  <si>
+    <t>evento.redattoNellaCasaComunale,!=,false</t>
+  </si>
+  <si>
+    <t>Stato</t>
+  </si>
+  <si>
+    <t>idStato</t>
+  </si>
+  <si>
+    <t>Stato descrizione</t>
+  </si>
+  <si>
+    <t>nomeStato</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>idProvincia</t>
+  </si>
+  <si>
+    <t>Provincia - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvincia</t>
+  </si>
+  <si>
+    <t>Comune</t>
+  </si>
+  <si>
+    <t>idComune</t>
+  </si>
+  <si>
+    <t>Comune - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComune</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
+  </si>
+  <si>
+    <t>Indirizzo</t>
+  </si>
+  <si>
+    <t>indirizzo</t>
+  </si>
+  <si>
+    <t>Numero Civico</t>
+  </si>
+  <si>
+    <t>numeroCivico</t>
+  </si>
+  <si>
+    <t>Data Redazione Nascita</t>
+  </si>
+  <si>
+    <t>evento.datiDiNascita</t>
+  </si>
+  <si>
+    <t>dataRedazione</t>
+  </si>
+  <si>
+    <t>Ora Redazione</t>
+  </si>
+  <si>
+    <t>oraRedazione</t>
+  </si>
+  <si>
+    <t>Minuti Redazione</t>
+  </si>
+  <si>
+    <t>minutiRedazione</t>
+  </si>
+  <si>
     <t>Dichiarante</t>
   </si>
   <si>
@@ -215,9 +305,6 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
-    <t>Località estera</t>
-  </si>
-  <si>
     <t>localitaEsteraNascita</t>
   </si>
   <si>
@@ -320,6 +407,15 @@
     <t>datiEssenzialiProcura</t>
   </si>
   <si>
+    <t>Ufficiale dello Stato Civile</t>
+  </si>
+  <si>
+    <t>evento.ufficialeStatoCivile</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
+  </si>
+  <si>
     <t>Madre</t>
   </si>
   <si>
@@ -374,9 +470,6 @@
     <t>Assegnazione cognome</t>
   </si>
   <si>
-    <t>evento.datiDiNascita</t>
-  </si>
-  <si>
     <t>sceltaCognome</t>
   </si>
   <si>
@@ -482,9 +575,6 @@
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
   </si>
   <si>
-    <t>Firmatario</t>
-  </si>
-  <si>
     <t>Dettagli evento</t>
   </si>
   <si>
@@ -510,6 +600,12 @@
   </si>
   <si>
     <t>tipoAccertamento</t>
+  </si>
+  <si>
+    <t>Redatto nella casa comunale</t>
+  </si>
+  <si>
+    <t>redattoNellaCasaComunale</t>
   </si>
 </sst>
 </file>
@@ -568,13 +664,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H171"/>
+  <dimension ref="A1:H211"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="23.453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="23.76953125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="65.09375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="33.328125" customWidth="true" bestFit="true"/>
@@ -1071,22 +1167,22 @@
         <v>42</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23">
@@ -1094,22 +1190,22 @@
         <v>42</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="E23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="24">
@@ -1117,22 +1213,22 @@
         <v>42</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25">
@@ -1140,22 +1236,22 @@
         <v>42</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26">
@@ -1163,22 +1259,22 @@
         <v>42</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27">
@@ -1186,22 +1282,22 @@
         <v>42</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28">
@@ -1209,22 +1305,22 @@
         <v>42</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29">
@@ -1232,22 +1328,22 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30">
@@ -1255,22 +1351,22 @@
         <v>42</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31">
@@ -1278,22 +1374,22 @@
         <v>42</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32">
@@ -1301,22 +1397,22 @@
         <v>42</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33">
@@ -1324,22 +1420,22 @@
         <v>42</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34">
@@ -1347,39 +1443,39 @@
         <v>42</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1390,19 +1486,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1413,19 +1509,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1436,19 +1532,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="E38" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1459,19 +1555,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1482,19 +1578,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1505,19 +1601,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1528,19 +1624,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1551,19 +1647,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1574,19 +1670,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1597,19 +1693,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1620,19 +1716,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1643,19 +1739,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1666,19 +1762,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1689,19 +1785,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1712,19 +1808,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1735,22 +1831,22 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>35</v>
@@ -1758,19 +1854,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1781,19 +1877,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1804,19 +1900,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1827,19 +1923,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1850,19 +1946,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1873,19 +1969,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1896,19 +1992,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1919,22 +2015,22 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>35</v>
@@ -1942,19 +2038,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1965,22 +2061,22 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>35</v>
@@ -1988,22 +2084,22 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>68</v>
+        <v>128</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>35</v>
@@ -2011,19 +2107,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>69</v>
+        <v>129</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2034,620 +2130,620 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>107</v>
-      </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="F78" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>102</v>
+        <v>131</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>103</v>
+        <v>132</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="E82" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>53</v>
+        <v>118</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>57</v>
+        <v>122</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>58</v>
+        <v>123</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>59</v>
+        <v>133</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>35</v>
@@ -2655,19 +2751,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2678,22 +2774,22 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
         <v>35</v>
@@ -2701,22 +2797,22 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>35</v>
@@ -2724,19 +2820,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2747,19 +2843,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2770,22 +2866,22 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>35</v>
@@ -2793,22 +2889,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>35</v>
@@ -2816,22 +2912,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>35</v>
@@ -2839,22 +2935,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>35</v>
@@ -2862,22 +2958,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>35</v>
@@ -2885,19 +2981,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>22</v>
@@ -2908,19 +3004,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2931,22 +3027,22 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>35</v>
@@ -2954,19 +3050,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>22</v>
@@ -2977,22 +3073,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>35</v>
@@ -3000,19 +3096,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3023,22 +3119,22 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>35</v>
@@ -3046,19 +3142,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3069,19 +3165,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>22</v>
@@ -3092,19 +3188,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3115,19 +3211,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>22</v>
@@ -3138,19 +3234,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>22</v>
@@ -3161,19 +3257,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3184,19 +3280,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>47</v>
+        <v>122</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>48</v>
+        <v>123</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3207,19 +3303,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3230,19 +3326,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3253,22 +3349,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>35</v>
@@ -3276,19 +3372,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>51</v>
+        <v>141</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>52</v>
+        <v>142</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3299,22 +3395,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>54</v>
+        <v>144</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>35</v>
@@ -3322,22 +3418,22 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>35</v>
@@ -3345,22 +3441,22 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>35</v>
@@ -3368,19 +3464,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3391,19 +3487,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3414,19 +3510,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>60</v>
+        <v>82</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3437,19 +3533,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3460,19 +3556,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3483,19 +3579,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3506,19 +3602,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3529,22 +3625,22 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>35</v>
@@ -3552,19 +3648,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3575,22 +3671,22 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>35</v>
@@ -3598,22 +3694,22 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>35</v>
@@ -3621,19 +3717,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3644,19 +3740,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3667,22 +3763,22 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>35</v>
@@ -3690,22 +3786,22 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>141</v>
+        <v>105</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>35</v>
@@ -3713,19 +3809,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3736,22 +3832,22 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>35</v>
@@ -3759,19 +3855,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3782,22 +3878,22 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="E140" s="2" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>35</v>
@@ -3805,19 +3901,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>150</v>
+        <v>114</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3828,617 +3924,617 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>46</v>
+        <v>117</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>154</v>
+        <v>22</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>155</v>
+        <v>35</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>48</v>
+        <v>119</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>155</v>
+        <v>35</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>49</v>
+        <v>120</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>155</v>
+        <v>35</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>51</v>
+        <v>122</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>155</v>
+        <v>35</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>54</v>
+        <v>125</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>155</v>
+        <v>35</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>155</v>
+        <v>35</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>57</v>
+        <v>139</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>155</v>
+        <v>35</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>155</v>
+        <v>35</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>61</v>
+        <v>143</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>62</v>
+        <v>144</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>154</v>
+        <v>22</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>155</v>
+        <v>35</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>63</v>
+        <v>145</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>155</v>
+        <v>35</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>155</v>
+        <v>35</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>155</v>
+        <v>35</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E154" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B154" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>155</v>
+        <v>35</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>71</v>
+        <v>153</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>153</v>
+        <v>66</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>72</v>
+        <v>154</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>155</v>
+        <v>35</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>155</v>
+        <v>35</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>155</v>
+        <v>35</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>155</v>
+        <v>35</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>79</v>
+        <v>155</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>153</v>
+        <v>66</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>155</v>
+        <v>35</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>81</v>
+        <v>157</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>153</v>
+        <v>66</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>82</v>
+        <v>158</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>155</v>
+        <v>35</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>155</v>
+        <v>35</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>85</v>
+        <v>159</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>155</v>
+        <v>35</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>155</v>
+        <v>35</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>89</v>
+        <v>160</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>154</v>
+        <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>155</v>
+        <v>35</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>155</v>
+        <v>35</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>155</v>
+        <v>35</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>153</v>
+        <v>66</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>155</v>
+        <v>35</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4449,22 +4545,22 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>160</v>
+        <v>139</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
         <v>35</v>
@@ -4472,19 +4568,19 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>33</v>
+        <v>150</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
@@ -4495,24 +4591,944 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B171" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E172" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C171" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D171" s="2" t="s">
+      <c r="F172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B204" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E171" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F171" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G171" s="2" t="s">
+      <c r="C204" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G211" s="2" t="s">
         <v>35</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_035.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_035.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1477" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="198">
   <si>
     <t>Sezione</t>
   </si>
@@ -664,7 +664,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H211"/>
+  <dimension ref="A1:H210"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2455,7 +2455,7 @@
         <v>131</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
@@ -2464,7 +2464,7 @@
         <v>132</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2478,7 +2478,7 @@
         <v>131</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
@@ -2487,7 +2487,7 @@
         <v>132</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2501,7 +2501,7 @@
         <v>131</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
@@ -2510,7 +2510,7 @@
         <v>132</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2524,7 +2524,7 @@
         <v>131</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
@@ -2533,7 +2533,7 @@
         <v>132</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2547,7 +2547,7 @@
         <v>131</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
@@ -2556,7 +2556,7 @@
         <v>132</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2570,7 +2570,7 @@
         <v>131</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
@@ -2579,7 +2579,7 @@
         <v>132</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2593,7 +2593,7 @@
         <v>131</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
@@ -2602,7 +2602,7 @@
         <v>132</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2616,7 +2616,7 @@
         <v>131</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
@@ -2625,7 +2625,7 @@
         <v>132</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2639,7 +2639,7 @@
         <v>131</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
@@ -2648,7 +2648,7 @@
         <v>132</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2662,7 +2662,7 @@
         <v>131</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
@@ -2671,7 +2671,7 @@
         <v>132</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2685,7 +2685,7 @@
         <v>131</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
@@ -2694,7 +2694,7 @@
         <v>132</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2705,25 +2705,25 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>136</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="90">
@@ -2731,19 +2731,19 @@
         <v>134</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>135</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
         <v>35</v>
@@ -2754,16 +2754,16 @@
         <v>134</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>135</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2777,16 +2777,16 @@
         <v>134</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>135</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2800,7 +2800,7 @@
         <v>134</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>17</v>
@@ -2809,7 +2809,7 @@
         <v>135</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2823,7 +2823,7 @@
         <v>134</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>17</v>
@@ -2832,7 +2832,7 @@
         <v>135</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2846,7 +2846,7 @@
         <v>134</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>17</v>
@@ -2855,7 +2855,7 @@
         <v>135</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2869,16 +2869,16 @@
         <v>134</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>135</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2892,7 +2892,7 @@
         <v>134</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
@@ -2901,10 +2901,10 @@
         <v>135</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>35</v>
@@ -2915,7 +2915,7 @@
         <v>134</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
@@ -2924,10 +2924,10 @@
         <v>135</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>35</v>
@@ -2938,7 +2938,7 @@
         <v>134</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
@@ -2947,10 +2947,10 @@
         <v>135</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>35</v>
@@ -2961,7 +2961,7 @@
         <v>134</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
@@ -2970,7 +2970,7 @@
         <v>135</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>22</v>
@@ -2984,19 +2984,19 @@
         <v>134</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>135</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>35</v>
@@ -3007,7 +3007,7 @@
         <v>134</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>17</v>
@@ -3016,7 +3016,7 @@
         <v>135</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -3030,19 +3030,19 @@
         <v>134</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>135</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>35</v>
@@ -3053,7 +3053,7 @@
         <v>134</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -3062,7 +3062,7 @@
         <v>135</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>22</v>
@@ -3076,7 +3076,7 @@
         <v>134</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
@@ -3085,10 +3085,10 @@
         <v>135</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>35</v>
@@ -3099,7 +3099,7 @@
         <v>134</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
@@ -3108,10 +3108,10 @@
         <v>135</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>35</v>
@@ -3122,7 +3122,7 @@
         <v>134</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
@@ -3131,10 +3131,10 @@
         <v>135</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>35</v>
@@ -3145,7 +3145,7 @@
         <v>134</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
@@ -3154,10 +3154,10 @@
         <v>135</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>35</v>
@@ -3168,7 +3168,7 @@
         <v>134</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
@@ -3177,10 +3177,10 @@
         <v>135</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>35</v>
@@ -3191,7 +3191,7 @@
         <v>134</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
@@ -3200,10 +3200,10 @@
         <v>135</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>35</v>
@@ -3214,7 +3214,7 @@
         <v>134</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
@@ -3223,7 +3223,7 @@
         <v>135</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>22</v>
@@ -3237,19 +3237,19 @@
         <v>134</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>135</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>35</v>
@@ -3260,7 +3260,7 @@
         <v>134</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>17</v>
@@ -3269,7 +3269,7 @@
         <v>135</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3283,7 +3283,7 @@
         <v>134</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>17</v>
@@ -3292,7 +3292,7 @@
         <v>135</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3306,16 +3306,16 @@
         <v>134</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>135</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3329,7 +3329,7 @@
         <v>134</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
@@ -3338,10 +3338,10 @@
         <v>135</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>35</v>
@@ -3352,7 +3352,7 @@
         <v>134</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
@@ -3361,10 +3361,10 @@
         <v>135</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>35</v>
@@ -3375,7 +3375,7 @@
         <v>134</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
@@ -3384,10 +3384,10 @@
         <v>135</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>35</v>
@@ -3398,7 +3398,7 @@
         <v>134</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
@@ -3407,7 +3407,7 @@
         <v>135</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>22</v>
@@ -3418,22 +3418,22 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>146</v>
+        <v>76</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>22</v>
+        <v>136</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>35</v>
@@ -3444,19 +3444,19 @@
         <v>147</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>148</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>35</v>
@@ -3467,16 +3467,16 @@
         <v>147</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>148</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3490,16 +3490,16 @@
         <v>147</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>148</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3513,7 +3513,7 @@
         <v>147</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>17</v>
@@ -3522,7 +3522,7 @@
         <v>148</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3536,7 +3536,7 @@
         <v>147</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>17</v>
@@ -3545,7 +3545,7 @@
         <v>148</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3559,7 +3559,7 @@
         <v>147</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>17</v>
@@ -3568,7 +3568,7 @@
         <v>148</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3582,16 +3582,16 @@
         <v>147</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>148</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3605,7 +3605,7 @@
         <v>147</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
@@ -3614,10 +3614,10 @@
         <v>148</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>35</v>
@@ -3628,7 +3628,7 @@
         <v>147</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
@@ -3637,10 +3637,10 @@
         <v>148</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
         <v>35</v>
@@ -3651,7 +3651,7 @@
         <v>147</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
@@ -3660,10 +3660,10 @@
         <v>148</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>35</v>
@@ -3674,7 +3674,7 @@
         <v>147</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
@@ -3683,7 +3683,7 @@
         <v>148</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>22</v>
@@ -3697,19 +3697,19 @@
         <v>147</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>148</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
         <v>35</v>
@@ -3720,7 +3720,7 @@
         <v>147</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>17</v>
@@ -3729,7 +3729,7 @@
         <v>148</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3743,19 +3743,19 @@
         <v>147</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>148</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>35</v>
@@ -3766,7 +3766,7 @@
         <v>147</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
@@ -3775,7 +3775,7 @@
         <v>148</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>22</v>
@@ -3789,7 +3789,7 @@
         <v>147</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
@@ -3798,10 +3798,10 @@
         <v>148</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>35</v>
@@ -3812,7 +3812,7 @@
         <v>147</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
@@ -3821,10 +3821,10 @@
         <v>148</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>35</v>
@@ -3835,7 +3835,7 @@
         <v>147</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
@@ -3844,10 +3844,10 @@
         <v>148</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>35</v>
@@ -3858,7 +3858,7 @@
         <v>147</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
@@ -3867,10 +3867,10 @@
         <v>148</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G139" s="2" t="s">
         <v>35</v>
@@ -3881,7 +3881,7 @@
         <v>147</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
@@ -3890,10 +3890,10 @@
         <v>148</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
         <v>35</v>
@@ -3904,7 +3904,7 @@
         <v>147</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
@@ -3913,10 +3913,10 @@
         <v>148</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>35</v>
@@ -3927,7 +3927,7 @@
         <v>147</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
@@ -3936,7 +3936,7 @@
         <v>148</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>22</v>
@@ -3950,19 +3950,19 @@
         <v>147</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>148</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>35</v>
@@ -3973,7 +3973,7 @@
         <v>147</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>17</v>
@@ -3982,7 +3982,7 @@
         <v>148</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3996,7 +3996,7 @@
         <v>147</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>17</v>
@@ -4005,7 +4005,7 @@
         <v>148</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
@@ -4019,16 +4019,16 @@
         <v>147</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>148</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -4042,7 +4042,7 @@
         <v>147</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
@@ -4051,10 +4051,10 @@
         <v>148</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G147" s="2" t="s">
         <v>35</v>
@@ -4065,7 +4065,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
@@ -4074,10 +4074,10 @@
         <v>148</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>35</v>
@@ -4088,7 +4088,7 @@
         <v>147</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
@@ -4097,10 +4097,10 @@
         <v>148</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G149" s="2" t="s">
         <v>35</v>
@@ -4111,7 +4111,7 @@
         <v>147</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
@@ -4120,7 +4120,7 @@
         <v>148</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>22</v>
@@ -4131,22 +4131,22 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>146</v>
+        <v>76</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
         <v>35</v>
@@ -4157,16 +4157,16 @@
         <v>149</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4180,16 +4180,16 @@
         <v>149</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>150</v>
+        <v>66</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>78</v>
+        <v>152</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4203,7 +4203,7 @@
         <v>149</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
@@ -4212,7 +4212,7 @@
         <v>66</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4226,16 +4226,16 @@
         <v>149</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>153</v>
+        <v>79</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>66</v>
+        <v>150</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
@@ -4249,16 +4249,16 @@
         <v>149</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4272,7 +4272,7 @@
         <v>149</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>17</v>
@@ -4281,7 +4281,7 @@
         <v>150</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
@@ -4295,16 +4295,16 @@
         <v>149</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>83</v>
+        <v>155</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>150</v>
+        <v>66</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>84</v>
+        <v>156</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
@@ -4318,7 +4318,7 @@
         <v>149</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>17</v>
@@ -4327,7 +4327,7 @@
         <v>66</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4341,16 +4341,16 @@
         <v>149</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>157</v>
+        <v>85</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>66</v>
+        <v>150</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>158</v>
+        <v>86</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4364,7 +4364,7 @@
         <v>149</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>85</v>
+        <v>159</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>17</v>
@@ -4373,7 +4373,7 @@
         <v>150</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4387,16 +4387,16 @@
         <v>149</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>159</v>
+        <v>89</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>150</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4410,7 +4410,7 @@
         <v>149</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>89</v>
+        <v>160</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
@@ -4419,7 +4419,7 @@
         <v>150</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4433,7 +4433,7 @@
         <v>149</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>160</v>
+        <v>93</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
@@ -4442,7 +4442,7 @@
         <v>150</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4456,7 +4456,7 @@
         <v>149</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
@@ -4465,7 +4465,7 @@
         <v>150</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4479,16 +4479,16 @@
         <v>149</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>95</v>
+        <v>161</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>150</v>
+        <v>66</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4502,16 +4502,16 @@
         <v>149</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>66</v>
+        <v>150</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4525,7 +4525,7 @@
         <v>149</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
@@ -4534,7 +4534,7 @@
         <v>150</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4548,7 +4548,7 @@
         <v>149</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
@@ -4557,7 +4557,7 @@
         <v>150</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
@@ -4571,7 +4571,7 @@
         <v>149</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
@@ -4580,7 +4580,7 @@
         <v>150</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
@@ -4594,16 +4594,16 @@
         <v>149</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>150</v>
+        <v>66</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
@@ -4617,7 +4617,7 @@
         <v>149</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
@@ -4626,7 +4626,7 @@
         <v>66</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
@@ -4637,19 +4637,19 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>66</v>
+        <v>169</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
@@ -4663,7 +4663,7 @@
         <v>167</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>17</v>
@@ -4672,7 +4672,7 @@
         <v>169</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
@@ -4686,7 +4686,7 @@
         <v>167</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>17</v>
@@ -4695,7 +4695,7 @@
         <v>169</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
@@ -4709,7 +4709,7 @@
         <v>167</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>17</v>
@@ -4718,7 +4718,7 @@
         <v>169</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
@@ -4732,7 +4732,7 @@
         <v>167</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>17</v>
@@ -4741,7 +4741,7 @@
         <v>169</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
@@ -4755,7 +4755,7 @@
         <v>167</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>17</v>
@@ -4764,7 +4764,7 @@
         <v>169</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
@@ -4778,7 +4778,7 @@
         <v>167</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>17</v>
@@ -4787,7 +4787,7 @@
         <v>169</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
@@ -4798,25 +4798,25 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>181</v>
+        <v>74</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>182</v>
+        <v>76</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>10</v>
+        <v>185</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>35</v>
+        <v>186</v>
       </c>
     </row>
     <row r="181">
@@ -4824,19 +4824,19 @@
         <v>183</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>185</v>
+        <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
         <v>186</v>
@@ -4847,16 +4847,16 @@
         <v>183</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
@@ -4870,16 +4870,16 @@
         <v>183</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
@@ -4893,7 +4893,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>17</v>
@@ -4902,7 +4902,7 @@
         <v>184</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
@@ -4916,7 +4916,7 @@
         <v>183</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>17</v>
@@ -4925,7 +4925,7 @@
         <v>184</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
@@ -4939,7 +4939,7 @@
         <v>183</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>17</v>
@@ -4948,7 +4948,7 @@
         <v>184</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
@@ -4962,16 +4962,16 @@
         <v>183</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
@@ -4985,7 +4985,7 @@
         <v>183</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
@@ -4994,10 +4994,10 @@
         <v>184</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>10</v>
+        <v>185</v>
       </c>
       <c r="G188" s="2" t="s">
         <v>186</v>
@@ -5008,7 +5008,7 @@
         <v>183</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
@@ -5017,10 +5017,10 @@
         <v>184</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>185</v>
+        <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
         <v>186</v>
@@ -5031,7 +5031,7 @@
         <v>183</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
@@ -5040,10 +5040,10 @@
         <v>184</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>10</v>
+        <v>185</v>
       </c>
       <c r="G190" s="2" t="s">
         <v>186</v>
@@ -5054,7 +5054,7 @@
         <v>183</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
@@ -5063,7 +5063,7 @@
         <v>184</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>185</v>
@@ -5077,19 +5077,19 @@
         <v>183</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>185</v>
+        <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
         <v>186</v>
@@ -5100,7 +5100,7 @@
         <v>183</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>17</v>
@@ -5109,7 +5109,7 @@
         <v>184</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>10</v>
@@ -5123,19 +5123,19 @@
         <v>183</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>10</v>
+        <v>185</v>
       </c>
       <c r="G194" s="2" t="s">
         <v>186</v>
@@ -5146,7 +5146,7 @@
         <v>183</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
@@ -5155,7 +5155,7 @@
         <v>184</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>185</v>
@@ -5169,7 +5169,7 @@
         <v>183</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
@@ -5178,10 +5178,10 @@
         <v>184</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>185</v>
+        <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
         <v>186</v>
@@ -5192,7 +5192,7 @@
         <v>183</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
@@ -5201,10 +5201,10 @@
         <v>184</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>10</v>
+        <v>185</v>
       </c>
       <c r="G197" s="2" t="s">
         <v>186</v>
@@ -5215,7 +5215,7 @@
         <v>183</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
@@ -5224,10 +5224,10 @@
         <v>184</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>185</v>
+        <v>10</v>
       </c>
       <c r="G198" s="2" t="s">
         <v>186</v>
@@ -5238,7 +5238,7 @@
         <v>183</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
@@ -5247,10 +5247,10 @@
         <v>184</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>10</v>
+        <v>185</v>
       </c>
       <c r="G199" s="2" t="s">
         <v>186</v>
@@ -5261,7 +5261,7 @@
         <v>183</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
@@ -5270,10 +5270,10 @@
         <v>184</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>185</v>
+        <v>10</v>
       </c>
       <c r="G200" s="2" t="s">
         <v>186</v>
@@ -5284,7 +5284,7 @@
         <v>183</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>9</v>
@@ -5293,10 +5293,10 @@
         <v>184</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>10</v>
+        <v>185</v>
       </c>
       <c r="G201" s="2" t="s">
         <v>186</v>
@@ -5307,7 +5307,7 @@
         <v>183</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
@@ -5316,7 +5316,7 @@
         <v>184</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>185</v>
@@ -5330,19 +5330,19 @@
         <v>183</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>184</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>185</v>
+        <v>10</v>
       </c>
       <c r="G203" s="2" t="s">
         <v>186</v>
@@ -5353,7 +5353,7 @@
         <v>183</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>17</v>
@@ -5362,7 +5362,7 @@
         <v>184</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>10</v>
@@ -5376,7 +5376,7 @@
         <v>183</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>17</v>
@@ -5385,7 +5385,7 @@
         <v>184</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>10</v>
@@ -5396,25 +5396,25 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>133</v>
+        <v>188</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>125</v>
+        <v>189</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>186</v>
+        <v>35</v>
       </c>
     </row>
     <row r="207">
@@ -5422,19 +5422,19 @@
         <v>187</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>127</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G207" s="2" t="s">
         <v>35</v>
@@ -5445,19 +5445,19 @@
         <v>187</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>127</v>
+        <v>33</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
         <v>35</v>
@@ -5468,16 +5468,16 @@
         <v>187</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>10</v>
@@ -5491,44 +5491,21 @@
         <v>187</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G210" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E211" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F211" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G211" s="2" t="s">
         <v>35</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_035.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_035.xlsx
@@ -1791,7 +1791,7 @@
         <v>100</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>75</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_035.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_035.xlsx
@@ -5080,7 +5080,7 @@
         <v>98</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>184</v>
@@ -5103,7 +5103,7 @@
         <v>100</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>184</v>
@@ -5112,7 +5112,7 @@
         <v>101</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>10</v>
+        <v>185</v>
       </c>
       <c r="G193" s="2" t="s">
         <v>186</v>

--- a/docs/Mapping_casi_uso/nascita/Dic_Nasc_035.xlsx
+++ b/docs/Mapping_casi_uso/nascita/Dic_Nasc_035.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="202">
   <si>
     <t>Sezione</t>
   </si>
@@ -261,6 +261,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -664,7 +676,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H210"/>
+  <dimension ref="A1:H220"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1584,7 +1596,7 @@
         <v>83</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>75</v>
@@ -1607,7 +1619,7 @@
         <v>85</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>75</v>
@@ -1653,7 +1665,7 @@
         <v>89</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>75</v>
@@ -1676,7 +1688,7 @@
         <v>91</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>75</v>
@@ -1742,7 +1754,7 @@
         <v>72</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
@@ -1751,7 +1763,7 @@
         <v>75</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1765,7 +1777,7 @@
         <v>72</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
@@ -1774,7 +1786,7 @@
         <v>75</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1788,7 +1800,7 @@
         <v>72</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
@@ -2021,7 +2033,7 @@
         <v>120</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>75</v>
@@ -2044,7 +2056,7 @@
         <v>122</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>75</v>
@@ -2093,10 +2105,10 @@
         <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2110,16 +2122,16 @@
         <v>72</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2130,65 +2142,65 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2" t="s">
+      <c r="E64" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="E65" s="2" t="s">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2199,19 +2211,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2222,19 +2234,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2245,19 +2257,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2268,19 +2280,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2291,19 +2303,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2314,19 +2326,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2337,19 +2349,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2360,19 +2372,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2383,19 +2395,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2406,19 +2418,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2429,19 +2441,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2452,19 +2464,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2475,19 +2487,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>106</v>
+        <v>59</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2498,19 +2510,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2521,19 +2533,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2544,19 +2556,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2567,19 +2579,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2590,19 +2602,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2613,19 +2625,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2636,19 +2648,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2659,19 +2671,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2682,19 +2694,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2705,114 +2717,114 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>79</v>
+        <v>126</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>81</v>
+        <v>137</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="G93" s="2" t="s">
         <v>35</v>
@@ -2820,19 +2832,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2843,19 +2855,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2866,19 +2878,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2889,22 +2901,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>35</v>
@@ -2912,22 +2924,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>35</v>
@@ -2935,22 +2947,22 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
         <v>35</v>
@@ -2958,22 +2970,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>35</v>
@@ -2981,19 +2993,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -3004,19 +3016,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -3027,19 +3039,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>22</v>
@@ -3050,22 +3062,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>35</v>
@@ -3073,22 +3085,22 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>35</v>
@@ -3096,19 +3108,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>22</v>
@@ -3119,19 +3131,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3142,22 +3154,22 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>35</v>
@@ -3165,22 +3177,22 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>35</v>
@@ -3188,19 +3200,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>22</v>
@@ -3211,22 +3223,22 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>35</v>
@@ -3234,22 +3246,22 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>35</v>
@@ -3257,19 +3269,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3280,22 +3292,22 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>35</v>
@@ -3303,19 +3315,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3326,19 +3338,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="E116" s="2" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>22</v>
@@ -3349,22 +3361,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>35</v>
@@ -3372,22 +3384,22 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>35</v>
@@ -3395,22 +3407,22 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
         <v>35</v>
@@ -3418,22 +3430,22 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>74</v>
+        <v>128</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>136</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>35</v>
@@ -3441,19 +3453,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>78</v>
+        <v>142</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3464,22 +3476,22 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>35</v>
@@ -3487,19 +3499,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3510,22 +3522,22 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="C124" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E124" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>35</v>
@@ -3533,22 +3545,22 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>85</v>
+        <v>149</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>86</v>
+        <v>150</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>35</v>
@@ -3556,22 +3568,22 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="G126" s="2" t="s">
         <v>35</v>
@@ -3579,19 +3591,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3602,22 +3614,22 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>35</v>
@@ -3625,19 +3637,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3648,22 +3660,22 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>35</v>
@@ -3671,19 +3683,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>22</v>
@@ -3694,19 +3706,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3717,19 +3729,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3740,22 +3752,22 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
         <v>35</v>
@@ -3763,22 +3775,22 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
         <v>35</v>
@@ -3786,22 +3798,22 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G136" s="2" t="s">
         <v>35</v>
@@ -3809,22 +3821,22 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
         <v>35</v>
@@ -3832,22 +3844,22 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G138" s="2" t="s">
         <v>35</v>
@@ -3855,19 +3867,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>112</v>
+        <v>59</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>22</v>
@@ -3878,19 +3890,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3901,22 +3913,22 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
         <v>35</v>
@@ -3924,19 +3936,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>22</v>
@@ -3947,22 +3959,22 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G143" s="2" t="s">
         <v>35</v>
@@ -3970,19 +3982,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
@@ -3993,22 +4005,22 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G145" s="2" t="s">
         <v>35</v>
@@ -4016,19 +4028,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
@@ -4039,19 +4051,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>22</v>
@@ -4062,19 +4074,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
@@ -4085,19 +4097,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>22</v>
@@ -4108,19 +4120,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>22</v>
@@ -4131,19 +4143,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
@@ -4154,19 +4166,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
@@ -4177,19 +4189,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>66</v>
+        <v>152</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
@@ -4200,19 +4212,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>66</v>
+        <v>152</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
@@ -4223,22 +4235,22 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G155" s="2" t="s">
         <v>35</v>
@@ -4246,19 +4258,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
@@ -4269,22 +4281,22 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>83</v>
+        <v>147</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>84</v>
+        <v>148</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G157" s="2" t="s">
         <v>35</v>
@@ -4292,22 +4304,22 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B158" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B158" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="C158" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>66</v>
+        <v>152</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="G158" s="2" t="s">
         <v>35</v>
@@ -4315,19 +4327,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>157</v>
+        <v>74</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
@@ -4338,19 +4350,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
@@ -4361,19 +4373,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>150</v>
+        <v>66</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
@@ -4384,19 +4396,19 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>150</v>
+        <v>66</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>90</v>
+        <v>158</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
@@ -4407,19 +4419,19 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
@@ -4430,19 +4442,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
@@ -4453,19 +4465,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
@@ -4476,19 +4488,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>66</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
@@ -4499,19 +4511,19 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>150</v>
+        <v>66</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
@@ -4522,19 +4534,19 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>10</v>
@@ -4545,19 +4557,19 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>10</v>
@@ -4568,19 +4580,19 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
@@ -4591,19 +4603,19 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>164</v>
+        <v>96</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>10</v>
@@ -4614,19 +4626,19 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>165</v>
+        <v>97</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>166</v>
+        <v>98</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>10</v>
@@ -4637,19 +4649,19 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>170</v>
+        <v>100</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>10</v>
@@ -4660,19 +4672,19 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>169</v>
+        <v>66</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
@@ -4683,19 +4695,19 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>10</v>
@@ -4706,19 +4718,19 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
@@ -4729,19 +4741,19 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>10</v>
@@ -4752,19 +4764,19 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
@@ -4775,19 +4787,19 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B179" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B179" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="C179" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>169</v>
+        <v>66</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>10</v>
@@ -4798,600 +4810,600 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>74</v>
+        <v>169</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>184</v>
+        <v>66</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>76</v>
+        <v>170</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>185</v>
+        <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>186</v>
+        <v>35</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>78</v>
+        <v>174</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>186</v>
+        <v>35</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>79</v>
+        <v>175</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>80</v>
+        <v>176</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>186</v>
+        <v>35</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>81</v>
+        <v>177</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>82</v>
+        <v>178</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>186</v>
+        <v>35</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>83</v>
+        <v>179</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>84</v>
+        <v>180</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>186</v>
+        <v>35</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>85</v>
+        <v>181</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>86</v>
+        <v>182</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>186</v>
+        <v>35</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B186" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B186" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="C186" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D186" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E186" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="E186" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>186</v>
+        <v>35</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>89</v>
+        <v>185</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>90</v>
+        <v>186</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>186</v>
+        <v>35</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>185</v>
+        <v>10</v>
       </c>
       <c r="G190" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>185</v>
+        <v>10</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G193" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>185</v>
+        <v>10</v>
       </c>
       <c r="G194" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>185</v>
+        <v>10</v>
       </c>
       <c r="G195" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>185</v>
+        <v>10</v>
       </c>
       <c r="G197" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>185</v>
+        <v>10</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>185</v>
+        <v>10</v>
       </c>
       <c r="G202" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="G203" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="206">
@@ -5399,22 +5411,22 @@
         <v>187</v>
       </c>
       <c r="B206" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D206" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C206" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="E206" s="2" t="s">
-        <v>189</v>
+        <v>111</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G206" s="2" t="s">
-        <v>35</v>
+        <v>190</v>
       </c>
     </row>
     <row r="207">
@@ -5422,22 +5434,22 @@
         <v>187</v>
       </c>
       <c r="B207" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G207" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E207" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F207" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G207" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="208">
@@ -5445,22 +5457,22 @@
         <v>187</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>192</v>
+        <v>114</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>33</v>
+        <v>188</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>193</v>
+        <v>115</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>35</v>
+        <v>190</v>
       </c>
     </row>
     <row r="209">
@@ -5468,22 +5480,22 @@
         <v>187</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>194</v>
+        <v>116</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>66</v>
+        <v>188</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>195</v>
+        <v>117</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>10</v>
+        <v>189</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>35</v>
+        <v>190</v>
       </c>
     </row>
     <row r="210">
@@ -5491,21 +5503,251 @@
         <v>187</v>
       </c>
       <c r="B210" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G215" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G216" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G217" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B218" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C210" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D210" s="2" t="s">
+      <c r="C218" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D218" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E210" s="2" t="s">
+      <c r="E218" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="F210" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G210" s="2" t="s">
+      <c r="F218" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G218" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G219" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G220" s="2" t="s">
         <v>35</v>
       </c>
     </row>
